--- a/medicine/Psychotrope/Jean_Lannoy/Jean_Lannoy.xlsx
+++ b/medicine/Psychotrope/Jean_Lannoy/Jean_Lannoy.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,14 +490,16 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean Lannoy (1834-1920), chevalier de l'ordre de Léopold, est un brasseur bruxellois. 
-Né à Menin, Belgique, fils de brasseur, Jean Lannoy fonde la Brasserie Jean Lannoy en 1859, rue de la Digue, à Ixelles, Bruxelles[1]. Elle occupe les anciens bâtiments de la brasserie L'Italie qu'il loue à la famille Van Zeebroeck.  
-En 1873, il entreprend la construction d'une nouvelle usine, avec hangars et dépôts à proximité, sur un vaste terrain qu'il achète près des étangs d'Ixelles, entre la chaussée de Vleurgat et la rue de la Cascade[2].
-La rue qui relie ces deux voiries s'appelle rue Lannoy[3]. Entre 1878 et 1889, Jean Lannoy y construit de petites maisons unifamiliales de style néoclassique.
-En 1897, Jean Lannoy acquiert à Uccle le château du Wolvenberg pour en faire une résidence de campagne pour lui et ses proches. Il le revend en 1920, année de son décès[4]. 
-En 1911, il cède la direction de la brasserie à trois de ses fils qui la rebaptisent Brasserie Lannoy et frères, puis en 1921, Grandes Brasseries d'Ixelles[5].
+Né à Menin, Belgique, fils de brasseur, Jean Lannoy fonde la Brasserie Jean Lannoy en 1859, rue de la Digue, à Ixelles, Bruxelles. Elle occupe les anciens bâtiments de la brasserie L'Italie qu'il loue à la famille Van Zeebroeck.  
+En 1873, il entreprend la construction d'une nouvelle usine, avec hangars et dépôts à proximité, sur un vaste terrain qu'il achète près des étangs d'Ixelles, entre la chaussée de Vleurgat et la rue de la Cascade.
+La rue qui relie ces deux voiries s'appelle rue Lannoy. Entre 1878 et 1889, Jean Lannoy y construit de petites maisons unifamiliales de style néoclassique.
+En 1897, Jean Lannoy acquiert à Uccle le château du Wolvenberg pour en faire une résidence de campagne pour lui et ses proches. Il le revend en 1920, année de son décès. 
+En 1911, il cède la direction de la brasserie à trois de ses fils qui la rebaptisent Brasserie Lannoy et frères, puis en 1921, Grandes Brasseries d'Ixelles.
 </t>
         </is>
       </c>
